--- a/wp-content/plugins/quiz-maker/admin/partials/questions/export_file/example_questions_export.xlsx
+++ b/wp-content/plugins/quiz-maker/admin/partials/questions/export_file/example_questions_export.xlsx
@@ -1,103 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\WP\WP_6.0\quiz-pro\wordpress\wp-content\plugins\quiz-maker\admin\partials\questions\export_file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Quiz questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+  <si>
+    <t>category</t>
+  </si>
   <si>
     <t>question</t>
   </si>
   <si>
+    <t>question_title</t>
+  </si>
+  <si>
     <t>question_image</t>
   </si>
   <si>
+    <t>question_hint</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
     <t>wrong_answer_text</t>
   </si>
   <si>
     <t>right_answer_text</t>
   </si>
   <si>
-    <t>question_hint</t>
-  </si>
-  <si>
     <t>explanation</t>
   </si>
   <si>
     <t>user_explanation</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>published</t>
+    <t>not_influence_to_score</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
   <si>
     <t>answers</t>
   </si>
   <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>150/3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>radio</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>off</t>
   </si>
   <si>
+    <t>{"answer":"60","image":"","correct":"0","ordering":"1","weight":"1","keyword":"A","placeholder":""},{"answer":"50","image":"","correct":"1","ordering":"2","weight":"2","keyword":"A","placeholder":""},{"answer":"100","image":"","correct":"0","ordering":"3","weight":"1","keyword":"A","placeholder":""}</t>
+  </si>
+  <si>
+    <t>10+20</t>
+  </si>
+  <si>
+    <t>{"answer":"30","image":"","correct":"1","ordering":"1","weight":"2","keyword":"A","placeholder":""},{"answer":"40","image":"","correct":"0","ordering":"2","weight":"1","keyword":"A","placeholder":""},{"answer":"50","image":"","correct":"0","ordering":"3","weight":"1","keyword":"A","placeholder":""}</t>
+  </si>
+  <si>
     <t>5*40</t>
   </si>
   <si>
-    <t>10+20</t>
-  </si>
-  <si>
-    <t>150/3</t>
-  </si>
-  <si>
-    <t>not_influence_to_score</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>{"answer": "300","image": "","correct": "0","ordering": "1","weight": "1","placeholder": ""}, {"answer": "100","image": "","correct": "0","ordering": "2","weight": "1","placeholder": ""}, {"answer": "200","image": "","correct": "1","ordering": "3","weight": "2","placeholder": ""}</t>
-  </si>
-  <si>
-    <t>{"answer": "30","image": "","correct": "1","ordering": "1","weight": "2","placeholder": ""}, {"answer": "40","image": "","correct": "0","ordering": "2","weight": "1","placeholder": ""}, {"answer": "50","image": "","correct": "0","ordering": "3","weight": "1","placeholder": ""}</t>
-  </si>
-  <si>
-    <t>{"answer": "60","image": "","correct": "0","ordering": "1","weight": "1","placeholder": ""}, {"answer": "50","image": "","correct": "1","ordering": "2","weight": "2","placeholder": ""}, {"answer": "100","image": "","correct": "0","ordering": "3","weight": "1","placeholder": ""}</t>
+    <t>{"answer":"300","image":"","correct":"0","ordering":"1","weight":"1","keyword":"A","placeholder":""},{"answer":"100","image":"","correct":"0","ordering":"2","weight":"1","keyword":"A","placeholder":""},{"answer":"200","image":"","correct":"1","ordering":"3","weight":"2","keyword":"A","placeholder":""}</t>
   </si>
   <si>
     <t>Uncategorized</t>
   </si>
   <si>
-    <t>category</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tags</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,20 +146,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -224,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,6 +276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -292,20 +311,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -427,38 +442,77 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="13" width="20.875" customWidth="1"/>
+    <col min="14" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="20.875" customWidth="1"/>
+    <col min="17" max="17" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -488,132 +542,173 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="P1:Q1 P4:Q4 P3:Q3 P2:Q2 C2:N2 C3:N3 C4:N4 B1:N1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>